--- a/assets/img/pacifico/inventory/insular/INSULAR_PACIFICO.xlsx
+++ b/assets/img/pacifico/inventory/insular/INSULAR_PACIFICO.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Añadidos_litorales\assets\img\pacifico\inventory\insular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Desarrollo_litorales\litorales\assets\img\pacifico\inventory\insular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F715016-CF5A-4119-A750-B316C89CA29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1600E9-8E44-4F4D-A8C4-D62D998DBE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="110">
   <si>
     <t>HD</t>
   </si>
@@ -285,186 +296,6 @@
     <t>Isla</t>
   </si>
   <si>
-    <t>/assets/img/pacifico/photos/insular/I_17.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_17.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_18.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_19.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_20.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_21.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_26.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_27.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_28.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_29.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_30.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_31.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_32.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_35.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_36.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_37.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_38.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_39.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_40.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_41.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_42.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_44.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_45.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_46.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_47.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_48.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_50.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_49.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_51.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_52.jpeg</t>
-  </si>
-  <si>
-    <t>/assets/img/pacifico/photos/insular/I_53.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_18.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_19.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_20.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_21.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_26.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_27.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_28.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_29.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_30.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_31.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_32.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_35.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_36.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_37.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_38.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_39.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_40.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_41.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_42.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_44.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_45.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_46.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_47.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_48.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_49.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_50.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_51.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_52.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/assets/img/pacifico/photos/insular/I_53.jpeg</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -517,13 +348,31 @@
   </si>
   <si>
     <t>localPath</t>
+  </si>
+  <si>
+    <t>IP_1</t>
+  </si>
+  <si>
+    <t>David Alonso Vera Mancipe</t>
+  </si>
+  <si>
+    <t>Isla Malpelo, Mun. de Buenaventura, Valle del Cauca. Por: David Alonso Vera Mancipe</t>
+  </si>
+  <si>
+    <t>IP_2</t>
+  </si>
+  <si>
+    <t>IP_3</t>
+  </si>
+  <si>
+    <t>IP_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,14 +386,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -554,7 +395,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -577,23 +418,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,16 +430,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -889,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="N20" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,70 +735,70 @@
     <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" customWidth="1"/>
     <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="70.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="72.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="79.33203125" customWidth="1"/>
     <col min="19" max="19" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>163</v>
+      <c r="J1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1028,11 +853,13 @@
       <c r="Q2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" t="s">
-        <v>86</v>
+      <c r="R2" t="str">
+        <f>"https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/" &amp; O2 &amp; ".jpeg"</f>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_17.jpeg</v>
+      </c>
+      <c r="S2" t="str">
+        <f>"/assets/img/pacifico/photos/insular/" &amp; O2 &amp; ".jpeg"</f>
+        <v>/assets/img/pacifico/photos/insular/I_17.jpeg</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1087,11 +914,13 @@
       <c r="Q3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="S3" t="s">
-        <v>88</v>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R32" si="0">"https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/" &amp; O3 &amp; ".jpeg"</f>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_18.jpeg</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S32" si="1">"/assets/img/pacifico/photos/insular/" &amp; O3 &amp; ".jpeg"</f>
+        <v>/assets/img/pacifico/photos/insular/I_18.jpeg</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1146,11 +975,13 @@
       <c r="Q4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S4" t="s">
-        <v>89</v>
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_19.jpeg</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_19.jpeg</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1205,11 +1036,13 @@
       <c r="Q5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="S5" t="s">
-        <v>90</v>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_20.jpeg</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_20.jpeg</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1264,11 +1097,13 @@
       <c r="Q6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="S6" t="s">
-        <v>91</v>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_21.jpeg</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_21.jpeg</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1321,11 +1156,13 @@
       <c r="Q7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="S7" t="s">
-        <v>92</v>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_26.jpeg</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_26.jpeg</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1380,11 +1217,13 @@
       <c r="Q8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8" t="s">
-        <v>93</v>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_27.jpeg</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_27.jpeg</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1439,11 +1278,13 @@
       <c r="Q9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" t="s">
-        <v>94</v>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_28.jpeg</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_28.jpeg</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1498,11 +1339,13 @@
       <c r="Q10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="S10" t="s">
-        <v>95</v>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_29.jpeg</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_29.jpeg</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1557,11 +1400,13 @@
       <c r="Q11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="S11" t="s">
-        <v>96</v>
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_30.jpeg</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_30.jpeg</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1616,11 +1461,13 @@
       <c r="Q12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="S12" t="s">
-        <v>97</v>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_31.jpeg</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_31.jpeg</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1675,11 +1522,13 @@
       <c r="Q13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="S13" t="s">
-        <v>98</v>
+      <c r="R13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_32.jpeg</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_32.jpeg</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1734,11 +1583,13 @@
       <c r="Q14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="S14" t="s">
-        <v>99</v>
+      <c r="R14" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_35.jpeg</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_35.jpeg</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1793,11 +1644,13 @@
       <c r="Q15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="S15" t="s">
-        <v>100</v>
+      <c r="R15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_36.jpeg</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_36.jpeg</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1852,11 +1705,13 @@
       <c r="Q16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="S16" t="s">
-        <v>101</v>
+      <c r="R16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_37.jpeg</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_37.jpeg</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1911,11 +1766,13 @@
       <c r="Q17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S17" t="s">
-        <v>102</v>
+      <c r="R17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_38.jpeg</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_38.jpeg</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1970,11 +1827,13 @@
       <c r="Q18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S18" t="s">
-        <v>103</v>
+      <c r="R18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_39.jpeg</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_39.jpeg</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -2029,11 +1888,13 @@
       <c r="Q19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="S19" t="s">
-        <v>104</v>
+      <c r="R19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_40.jpeg</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_40.jpeg</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2088,11 +1949,13 @@
       <c r="Q20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="S20" t="s">
-        <v>105</v>
+      <c r="R20" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_41.jpeg</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_41.jpeg</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2147,11 +2010,13 @@
       <c r="Q21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R21" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="S21" t="s">
-        <v>106</v>
+      <c r="R21" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_42.jpeg</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_42.jpeg</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -2206,11 +2071,13 @@
       <c r="Q22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="S22" t="s">
-        <v>107</v>
+      <c r="R22" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_44.jpeg</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_44.jpeg</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2265,11 +2132,13 @@
       <c r="Q23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="S23" t="s">
-        <v>108</v>
+      <c r="R23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_45.jpeg</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_45.jpeg</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2324,11 +2193,13 @@
       <c r="Q24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="S24" t="s">
-        <v>109</v>
+      <c r="R24" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_46.jpeg</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_46.jpeg</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -2383,11 +2254,13 @@
       <c r="Q25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="S25" t="s">
-        <v>110</v>
+      <c r="R25" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_47.jpeg</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_47.jpeg</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -2442,11 +2315,13 @@
       <c r="Q26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="S26" t="s">
-        <v>111</v>
+      <c r="R26" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_48.jpeg</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_48.jpeg</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -2501,11 +2376,13 @@
       <c r="Q27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R27" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="S27" t="s">
-        <v>113</v>
+      <c r="R27" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_49.jpeg</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_49.jpeg</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -2560,11 +2437,13 @@
       <c r="Q28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R28" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S28" t="s">
-        <v>112</v>
+      <c r="R28" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_50.jpeg</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_50.jpeg</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -2619,11 +2498,13 @@
       <c r="Q29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R29" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="S29" t="s">
-        <v>114</v>
+      <c r="R29" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_51.jpeg</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_51.jpeg</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -2678,11 +2559,13 @@
       <c r="Q30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R30" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="S30" t="s">
-        <v>115</v>
+      <c r="R30" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_52.jpeg</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_52.jpeg</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -2737,47 +2620,172 @@
       <c r="Q31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R31" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="S31" t="s">
-        <v>116</v>
+      <c r="R31" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_53.jpeg</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/I_53.jpeg</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" s="4">
+        <v>45240</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IP_1.jpeg</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/pacifico/photos/insular/IP_1.jpeg</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" s="4">
+        <v>45231</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" ref="R33:R35" si="2">"https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/" &amp; O33 &amp; ".jpeg"</f>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IP_2.jpeg</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" ref="S33:S35" si="3">"/assets/img/pacifico/photos/insular/" &amp; O33 &amp; ".jpeg"</f>
+        <v>/assets/img/pacifico/photos/insular/IP_2.jpeg</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P34" s="4">
+        <v>45251</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="2"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IP_3.jpeg</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="3"/>
+        <v>/assets/img/pacifico/photos/insular/IP_3.jpeg</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P35" s="4">
+        <v>45231</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="2"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IP_4.jpeg</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="3"/>
+        <v>/assets/img/pacifico/photos/insular/IP_4.jpeg</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{F7B41798-AD0B-4EE7-9F35-7AC422AED348}"/>
-    <hyperlink ref="R3" r:id="rId2" xr:uid="{944C6B1F-0B3F-41C2-9D74-69B68E1E9D2B}"/>
-    <hyperlink ref="R4" r:id="rId3" xr:uid="{A3435CF9-4F04-4623-AAEB-5C575B2A886A}"/>
-    <hyperlink ref="R5" r:id="rId4" xr:uid="{3690C7C8-E13D-41EA-B77B-5D510C762A3D}"/>
-    <hyperlink ref="R6" r:id="rId5" xr:uid="{3F786B79-CB5E-4E6F-B7B4-ABC02C118E31}"/>
-    <hyperlink ref="R7" r:id="rId6" xr:uid="{0655729B-B6B7-4BBF-9C81-5E5AB1D8BB02}"/>
-    <hyperlink ref="R8" r:id="rId7" xr:uid="{A88DE63B-881B-4A4B-90F7-803087BF025C}"/>
-    <hyperlink ref="R9" r:id="rId8" xr:uid="{49ADC20D-CDF4-43A1-BBFC-97F43D475476}"/>
-    <hyperlink ref="R10" r:id="rId9" xr:uid="{8794FCE9-B00F-4CD4-A929-685C935C1EE0}"/>
-    <hyperlink ref="R11" r:id="rId10" xr:uid="{CB602DFC-4828-462E-93A7-B1A548B5464A}"/>
-    <hyperlink ref="R12" r:id="rId11" xr:uid="{8770E1E6-2D6C-4941-90B0-58587579DA58}"/>
-    <hyperlink ref="R13" r:id="rId12" xr:uid="{14BF0A14-5A05-41E1-A1B6-7FEEE6290F31}"/>
-    <hyperlink ref="R14" r:id="rId13" xr:uid="{63561F26-E90F-43E0-8B0D-417E3167BB6B}"/>
-    <hyperlink ref="R15" r:id="rId14" xr:uid="{C250D8C6-F78D-4780-8DDF-35AACCAC6059}"/>
-    <hyperlink ref="R16" r:id="rId15" xr:uid="{CB5BC300-C3ED-401F-A1A3-CC83E38CEA93}"/>
-    <hyperlink ref="R17" r:id="rId16" xr:uid="{DFC06C2A-46F2-42CC-81E7-DCB6A3700651}"/>
-    <hyperlink ref="R18" r:id="rId17" xr:uid="{B2D69AE1-5224-47E9-841F-3554673F52FB}"/>
-    <hyperlink ref="R19" r:id="rId18" xr:uid="{C41E1E37-EDD1-4BEB-B55E-BD7C1212744B}"/>
-    <hyperlink ref="R20" r:id="rId19" xr:uid="{DAB33FE3-8E98-4B9F-B380-00746B904E47}"/>
-    <hyperlink ref="R21" r:id="rId20" xr:uid="{C4200003-F80C-4E83-BA52-198608A67DE2}"/>
-    <hyperlink ref="R22" r:id="rId21" xr:uid="{06B59EC6-7FFF-45C9-BD1D-E606E6DC4DF7}"/>
-    <hyperlink ref="R23" r:id="rId22" xr:uid="{DC1C36F6-260E-42E1-8DE8-58A602E5F114}"/>
-    <hyperlink ref="R24" r:id="rId23" xr:uid="{B50F3A8D-C012-4997-84CC-4A9E88E74433}"/>
-    <hyperlink ref="R25" r:id="rId24" xr:uid="{0F1CD940-606E-4BC2-9EDD-1944B14C2E83}"/>
-    <hyperlink ref="R26" r:id="rId25" xr:uid="{474DC99A-4BD6-4B78-9C58-F4F3D3BDF617}"/>
-    <hyperlink ref="R27" r:id="rId26" xr:uid="{5846C0B0-6326-4919-A6CA-5D6ABF5CA53B}"/>
-    <hyperlink ref="R28" r:id="rId27" xr:uid="{6BFB12A7-FD1D-48E6-BD4F-71EA74BFD491}"/>
-    <hyperlink ref="R29" r:id="rId28" xr:uid="{65F48057-A0AC-420A-9E9D-58FB1269A650}"/>
-    <hyperlink ref="R30" r:id="rId29" xr:uid="{86F08222-00DF-4FD6-B477-21438F4D95D7}"/>
-    <hyperlink ref="R31" r:id="rId30" xr:uid="{978DBD89-8C9B-4061-9DC2-8271F4F55EF4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>